--- a/Proyecto Interno/working-papers/working-paper-aecm/input/261225_adj_coverage_ipc_sipsa.xlsx
+++ b/Proyecto Interno/working-papers/working-paper-aecm/input/261225_adj_coverage_ipc_sipsa.xlsx
@@ -1,21 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/working-papers/working-paper-aecm/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_0D6AFDCE8F79A8D366075C52F3D83237D1E4A975" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F853CCFF-088F-407A-B4E1-45D7132FD6AA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+  <si>
+    <t>articulo_ipc</t>
+  </si>
+  <si>
+    <t>alimento_sipsa</t>
+  </si>
+  <si>
+    <t>cod_mun</t>
+  </si>
+  <si>
+    <t>months_both</t>
+  </si>
+  <si>
+    <t>months_any</t>
+  </si>
+  <si>
+    <t>ARROZ PARA SECO</t>
+  </si>
+  <si>
+    <t>Arroz de primera</t>
+  </si>
+  <si>
+    <t>05001</t>
+  </si>
+  <si>
+    <t>11001</t>
+  </si>
+  <si>
+    <t>76001</t>
+  </si>
+  <si>
+    <t>CEBOLLA CABEZONA</t>
+  </si>
+  <si>
+    <t>Cebolla cabezona blanca</t>
+  </si>
+  <si>
+    <t>Cebolla cabezona blanca bogotana</t>
+  </si>
+  <si>
+    <t>PAPA</t>
+  </si>
+  <si>
+    <t>Papa R-12 negra</t>
+  </si>
+  <si>
+    <t>Papa capira</t>
+  </si>
+  <si>
+    <t>PLÁTANO</t>
+  </si>
+  <si>
+    <t>Plátano hartón verde</t>
+  </si>
+  <si>
+    <t>TOMATE</t>
+  </si>
+  <si>
+    <t>Tomate larga vida</t>
+  </si>
+  <si>
+    <t>YUCA</t>
+  </si>
+  <si>
+    <t>Yuca ICA</t>
+  </si>
+  <si>
+    <t>Yuca llanera</t>
+  </si>
+  <si>
+    <t>ZANAHORIA</t>
+  </si>
+  <si>
+    <t>Zanahoria</t>
+  </si>
+  <si>
+    <t>Zanahoria bogotana</t>
+  </si>
+  <si>
+    <t>Zanahoria larga vida</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +155,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +207,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +276,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,55 +452,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>articulo_ipc</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>alimento_sipsa</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cod_mun</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>months_both</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>months_any</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ARROZ PARA SECO</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Arroz de primera</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>05001</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
         <v>63</v>
@@ -407,21 +500,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ARROZ PARA SECO</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Arroz de primera</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>11001</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3">
         <v>63</v>
@@ -430,21 +517,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ARROZ PARA SECO</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Arroz de primera</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>76001</t>
-        </is>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4">
         <v>63</v>
@@ -453,21 +534,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CEBOLLA CABEZONA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cebolla cabezona blanca</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>05001</t>
-        </is>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
       <c r="D5">
         <v>63</v>
@@ -476,21 +551,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CEBOLLA CABEZONA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cebolla cabezona blanca</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>11001</t>
-        </is>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
       <c r="D6">
         <v>63</v>
@@ -499,21 +568,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CEBOLLA CABEZONA</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cebolla cabezona blanca bogotana</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>76001</t>
-        </is>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
       <c r="D7">
         <v>63</v>
@@ -522,21 +585,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PAPA</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Papa R-12 negra</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>11001</t>
-        </is>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
       <c r="D8">
         <v>63</v>
@@ -545,21 +602,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PAPA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Papa capira</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>05001</t>
-        </is>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
       </c>
       <c r="D9">
         <v>63</v>
@@ -568,21 +619,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PAPA</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Papa capira</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>76001</t>
-        </is>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
       <c r="D10">
         <v>63</v>
@@ -591,21 +636,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PLÁTANO</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Plátano hartón verde</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>05001</t>
-        </is>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
       </c>
       <c r="D11">
         <v>63</v>
@@ -614,21 +653,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PLÁTANO</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Plátano hartón verde</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>11001</t>
-        </is>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
       </c>
       <c r="D12">
         <v>63</v>
@@ -637,21 +670,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PLÁTANO</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Plátano hartón verde</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>76001</t>
-        </is>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
       </c>
       <c r="D13">
         <v>63</v>
@@ -660,21 +687,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>TOMATE</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Tomate larga vida</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>05001</t>
-        </is>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
       </c>
       <c r="D14">
         <v>63</v>
@@ -683,21 +704,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>TOMATE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Tomate larga vida</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>11001</t>
-        </is>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
       </c>
       <c r="D15">
         <v>63</v>
@@ -706,21 +721,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>TOMATE</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Tomate larga vida</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>76001</t>
-        </is>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
       </c>
       <c r="D16">
         <v>63</v>
@@ -729,21 +738,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>YUCA</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Yuca ICA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>05001</t>
-        </is>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
       </c>
       <c r="D17">
         <v>63</v>
@@ -752,21 +755,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>YUCA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Yuca ICA</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>76001</t>
-        </is>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
       </c>
       <c r="D18">
         <v>63</v>
@@ -775,21 +772,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>YUCA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Yuca llanera</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>11001</t>
-        </is>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
       </c>
       <c r="D19">
         <v>63</v>
@@ -798,21 +789,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ZANAHORIA</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Zanahoria</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>11001</t>
-        </is>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
       </c>
       <c r="D20">
         <v>63</v>
@@ -821,21 +806,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ZANAHORIA</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Zanahoria bogotana</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>76001</t>
-        </is>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
       </c>
       <c r="D21">
         <v>63</v>
@@ -844,21 +823,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ZANAHORIA</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Zanahoria larga vida</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>05001</t>
-        </is>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
       </c>
       <c r="D22">
         <v>63</v>
